--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板一厂——成型——注修工成型计件.xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板一厂——成型——注修工成型计件.xlsx
@@ -118,10 +118,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -184,16 +177,107 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,117 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -326,30 +299,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,13 +373,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,25 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,139 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +594,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -642,11 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +644,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,189 +676,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
@@ -895,40 +856,40 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,7 +898,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,7 +1265,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1446,13 +1407,15 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="14" t="e">
+      <c r="L3" s="14">
         <f>I3/H3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="9"/>
